--- a/data/income_statement/3digits/total/091_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/091_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>091-Support activities for petroleum and natural gas extraction</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>091-Support activities for petroleum and natural gas extraction</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>102457.23108</v>
@@ -956,7 +862,7 @@
         <v>238830.4524</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>943645.0150899999</v>
+        <v>943645.01509</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>539356.1466100001</v>
@@ -965,28 +871,33 @@
         <v>528244.31881</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7971603.45793</v>
+        <v>774891.6710399999</v>
       </c>
       <c r="I5" s="47" t="n">
         <v>545071.62509</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>442870.77468</v>
+        <v>442870.7746800001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>626542.75002</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1512655.98071</v>
+        <v>1539566.81368</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3269295.177980001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3498392.79243</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4249044.3</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>91964.89453000001</v>
@@ -995,37 +906,42 @@
         <v>220470.97949</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>829246.14769</v>
+        <v>829246.1476900001</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>495807.35722</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>514843.7426699999</v>
+        <v>514843.74267</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7955580.73631</v>
+        <v>758868.9494200001</v>
       </c>
       <c r="I6" s="48" t="n">
         <v>518406.10987</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>424138.4154200001</v>
+        <v>424138.41542</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>606974.99156</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1496324.15886</v>
+        <v>1522768.98736</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3223774.17325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3452479.274499999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4173004.324</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>9699.635560000001</v>
@@ -1055,22 +971,27 @@
         <v>13551.38465</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>14132.56937</v>
+        <v>14598.57384</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>32060.16166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>32419.40654</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>38191.594</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>792.70099</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>5621.76969</v>
+        <v>5621.769689999999</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>42870.79493</v>
@@ -1097,13 +1018,18 @@
         <v>2199.25248</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>13460.84307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13494.11139</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>37848.382</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>503.68638</v>
@@ -1121,7 +1047,7 @@
         <v>4011.32275</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7227038.88971</v>
+        <v>30327.10282</v>
       </c>
       <c r="I9" s="47" t="n">
         <v>15750.64325</v>
@@ -1133,16 +1059,21 @@
         <v>28014.34317</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>66025.04205999999</v>
+        <v>66025.04206000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>114210.37986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>115100.34336</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>95382.57000000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>326.2023</v>
@@ -1151,7 +1082,7 @@
         <v>3404.64262</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6173.312339999999</v>
+        <v>6173.31234</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>2065.58134</v>
@@ -1160,7 +1091,7 @@
         <v>3996.72114</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7220986.64021</v>
+        <v>24274.85332</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>15411.3592</v>
@@ -1175,13 +1106,18 @@
         <v>21453.6572</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>110127.2708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>111017.2343</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>64516.178</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>177.48408</v>
@@ -1214,13 +1150,18 @@
         <v>2.82969</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>596.8186399999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>596.81864</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>83.358</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>3486.29042</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>30783.034</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>101953.5447</v>
@@ -1289,55 +1235,65 @@
         <v>598528.40685</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1446630.93865</v>
+        <v>1473541.77162</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3155084.79812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3383292.44907</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4153661.73</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>87801.23533000001</v>
+        <v>87801.23533</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>192673.35131</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>728982.1350700001</v>
+        <v>728982.1350700002</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>374991.24728</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>464513.0268399999</v>
+        <v>464513.02684</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>587295.15012</v>
+        <v>587295.1501199999</v>
       </c>
       <c r="I14" s="47" t="n">
         <v>428893.50175</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>346539.42543</v>
+        <v>346539.4254299999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>460437.57744</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1181412.09249</v>
+        <v>1208502.55576</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2152606.7604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2367993.4072</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3101278.499</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>40853.21815</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>133358.965</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>8699.625410000001</v>
@@ -1394,10 +1355,10 @@
         <v>156060.85727</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>95652.51136999999</v>
+        <v>95652.51137000001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>86741.41357999999</v>
+        <v>86741.41357999998</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>54344.61396</v>
@@ -1409,13 +1370,18 @@
         <v>112180.94189</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>342621.6625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>343730.01403</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>761350.627</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>78761.00557999998</v>
@@ -1424,7 +1390,7 @@
         <v>151921.40036</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>630951.9903099999</v>
+        <v>630951.99031</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>267780.11436</v>
@@ -1442,19 +1408,24 @@
         <v>271079.94813</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>380894.4890400001</v>
+        <v>380894.48904</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>999083.6871399999</v>
+        <v>1026174.15041</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1750692.76827</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1964971.06354</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2190128.485</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>340.60434</v>
@@ -1489,17 +1460,22 @@
       <c r="M18" s="48" t="n">
         <v>18439.11148</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>16440.422</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>14152.30937</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>42732.73048000001</v>
+        <v>42732.73048</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>208482.68093</v>
@@ -1523,19 +1499,24 @@
         <v>138090.82941</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>265218.84616</v>
+        <v>265039.21586</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1002478.03772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1015299.04187</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1052383.231</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>46679.52657999999</v>
+        <v>46679.52658</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>67810.94901000001</v>
@@ -1550,28 +1531,33 @@
         <v>124522.92989</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>192304.59318</v>
+        <v>190947.16615</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>124035.64942</v>
+        <v>124976.61442</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>110990.71984</v>
+        <v>110992.24117</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>133074.39931</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>253965.59634</v>
+        <v>257904.1163</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>445054.01834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>446539.35095</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>606796.7120000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1158.71369</v>
@@ -1589,7 +1575,7 @@
         <v>11679.27506</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>35946.23562000001</v>
+        <v>35946.23562</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>292.64356</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>1902.82006</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>12458.054</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>237.46999</v>
@@ -1619,7 +1610,7 @@
         <v>876.8236899999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5957.641699999999</v>
+        <v>3903.29805</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>1921.99637</v>
@@ -1643,13 +1634,18 @@
         <v>469.15335</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>437.3048</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>437.3048000000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>25374.692</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>45283.3429</v>
@@ -1658,7 +1654,7 @@
         <v>63468.03633</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>122334.71339</v>
+        <v>124389.05704</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>109119.99501</v>
@@ -1667,28 +1663,33 @@
         <v>111182.67407</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>155315.25188</v>
+        <v>153957.82485</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>122398.43608</v>
+        <v>123339.40108</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>110098.81814</v>
+        <v>110100.33947</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>122680.96387</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>253423.29286</v>
+        <v>257361.81282</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>442713.89348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>444199.22609</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>568963.966</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-32527.21721</v>
@@ -1703,31 +1704,36 @@
         <v>47619.61616000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-64802.96066999999</v>
+        <v>-64802.96067</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-35035.17508000001</v>
+        <v>-33677.74805000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-23608.16933</v>
+        <v>-24549.13433</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-33384.38759</v>
+        <v>-33385.90891999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5016.4301</v>
+        <v>5016.430100000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>11253.24982</v>
+        <v>7135.09956</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>557424.01938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>568759.69092</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>445586.519</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>162470.11122</v>
@@ -1745,28 +1751,33 @@
         <v>1311228.28099</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2048040.40191</v>
+        <v>2045396.5666</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5286357.46149</v>
+        <v>5287488.14779</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4041659.5417</v>
+        <v>4041665.13647</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3655973.62049</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>21183906.60354</v>
+        <v>21232133.12216</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7714805.62333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7750736.200180001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>31369369.046</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>94.47799999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>180.569</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2553.95202</v>
@@ -1862,28 +1883,33 @@
         <v>20976.83443</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>18350.13157</v>
+        <v>18204.18935</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20043.55459</v>
+        <v>20045.56797</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>20648.07563</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>63716.05710999999</v>
+        <v>63716.05711</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>55534.13944</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>62329.67698999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>62329.67699</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>97895.02099999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>69.11952000000001</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>330.18704</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5876.683</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>73928.53647000002</v>
@@ -1970,7 +2006,7 @@
         <v>369.1164</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>56.92637999999999</v>
+        <v>56.92638</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>27.26679</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>12575.63314</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>20391.756</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>83610.27239999999</v>
+        <v>83610.2724</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>400943.60441</v>
@@ -2018,28 +2059,33 @@
         <v>925233.0018499999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1706165.07891</v>
+        <v>1703667.18582</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5261510.04324</v>
+        <v>5262638.71616</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3766297.06282</v>
+        <v>3766302.65759</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3584445.979</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>21079143.26078</v>
+        <v>21127369.7794</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6954884.45702</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6990813.346229999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>31176028.601</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>2308.23081</v>
@@ -2141,7 +2197,7 @@
         <v>2566.63525</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>8934.458440000002</v>
+        <v>8934.45844</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>4684.96043</v>
@@ -2150,19 +2206,24 @@
         <v>31491.53497</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>684591.1911400001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>684592.8787800001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>68996.416</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>86945.60740000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>713576.9647400001</v>
+        <v>713576.96474</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>814008.80126</v>
@@ -2174,28 +2235,33 @@
         <v>3152132.28819</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1828984.36018</v>
+        <v>1826444.40903</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6172128.24142</v>
+        <v>6172640.92909</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6588811.700219999</v>
+        <v>6588811.70022</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>4904738.40436</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>26217802.33426</v>
+        <v>26280166.05377</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8939519.611300001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8977259.847690001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>34813911.218</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>43.813</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>44.20995</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1851.10325</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>54.332</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>13.89556</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>83866.00071000001</v>
+        <v>83866.00070999999</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>390097.87103</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>731637.89161</v>
+        <v>731637.8916100002</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>382915.1910999999</v>
+        <v>382915.1911</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>910496.6711299999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1708972.57635</v>
+        <v>1706442.14466</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5594914.379439999</v>
+        <v>5595427.067109999</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>5814722.240350001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3875762.243089999</v>
+        <v>3875762.24309</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>25622032.75729</v>
+        <v>25684396.4768</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>8930255.516909998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>8967995.75316</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>34774627.709</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>8.92769</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>3012.57349</v>
@@ -2441,13 +2537,13 @@
         <v>82348.52102</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>77100.87003000001</v>
+        <v>77100.87002999999</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>2241632.70968</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>105056.11383</v>
+        <v>105046.59437</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>568103.5003099999</v>
@@ -2459,16 +2555,21 @@
         <v>1028827.79605</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>588174.3469100001</v>
+        <v>588174.34691</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>7412.99114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7412.99128</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>39185.364</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2437.7078</v>
@@ -2498,19 +2599,24 @@
         <v>159479.4251</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>250823.158</v>
+        <v>250826.57004</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>282572.69061</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>282692.59273</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>314856.648</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>767.53451</v>
+        <v>767.5345100000002</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>1469.12261</v>
@@ -2519,7 +2625,7 @@
         <v>2832.92607</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>473.1276799999999</v>
+        <v>473.12768</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>2616.4868</v>
@@ -2534,19 +2640,24 @@
         <v>5814.421199999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5118.109749999999</v>
+        <v>5118.10975</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2782.60643</v>
+        <v>2786.01847</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1916.02605</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2035.92817</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>62234.632</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1670.17329</v>
@@ -2579,13 +2690,18 @@
         <v>248040.55157</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>280656.66456</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>280656.6645599999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>252622.016</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>40559.57881</v>
@@ -2597,34 +2713,39 @@
         <v>254794.44822</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>478096.6386600001</v>
+        <v>478096.6386599999</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>-1908343.17569</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>168059.53347</v>
+        <v>169313.07634</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1029614.44651</v>
+        <v>-1029937.41288</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-2718848.88478</v>
+        <v>-2718844.81134</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-1403227.77887</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-5273465.638900001</v>
+        <v>-5291724.402089999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-949862.6592</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-940456.5493200001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-3313812.301</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>960.38203</v>
@@ -2642,28 +2763,33 @@
         <v>4712.07329</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2190.63527</v>
+        <v>2145.70518</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>59266.04824999999</v>
+        <v>59296.23793</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>19302.63703999999</v>
+        <v>19302.63704</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>14549.81284</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>71190.91712</v>
+        <v>80511.00668999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>26437.80848</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>26467.60688</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>20907.067</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>28.16576</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>626.08623</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>8769.901</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>932.21627</v>
+        <v>932.2162699999999</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>2385.59856</v>
@@ -2720,10 +2851,10 @@
         <v>2638.24755</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1842.81516</v>
+        <v>1797.88507</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>59259.392</v>
+        <v>59289.58168</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>17714.53049</v>
@@ -2732,22 +2863,27 @@
         <v>11867.82405</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>70779.34894</v>
+        <v>80099.43851000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>25811.72225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>25841.52065</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>12137.166</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1710.10454</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3152.89241</v>
+        <v>3152.892409999999</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>14071.37628</v>
@@ -2756,13 +2892,13 @@
         <v>27680.44432</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>48225.35628999999</v>
+        <v>48225.35629</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>15297.47659</v>
+        <v>15296.45017</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13163.55871</v>
+        <v>13153.15471</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>311643.70592</v>
@@ -2774,13 +2910,18 @@
         <v>15873.09953</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>25949.57004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>26197.21054</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>19724.702</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>786.6141</v>
@@ -2801,7 +2942,7 @@
         <v>12514.30985</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>646.8483199999999</v>
+        <v>646.8483200000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>357.71418</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0.975</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>298.52523</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>239.94238</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>7190.687</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>624.96521</v>
@@ -2870,40 +3021,45 @@
         <v>12035.90853</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4835.69112</v>
+        <v>4835.691120000001</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>2088.9517</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2027.80345</v>
+        <v>2026.77703</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>12145.39076</v>
+        <v>12134.98676</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>310037.78173</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>500870.6818099999</v>
+        <v>500870.68181</v>
       </c>
       <c r="L54" s="48" t="n">
         <v>15817.65851</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>25708.65266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>25956.29316</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>12533.88</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>39809.85630000001</v>
+        <v>39809.8563</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-79854.78416</v>
+        <v>-79854.78415999998</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>244382.20836</v>
@@ -2915,34 +3071,39 @@
         <v>-1951856.45869</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>154952.69215</v>
+        <v>156162.33135</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-983511.9569700001</v>
+        <v>-983794.3296599999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-3011189.95366</v>
+        <v>-3011185.88022</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-1890037.78934</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-5218147.82131</v>
+        <v>-5227086.49493</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-949374.4207600001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-940186.1529799999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-3312629.936</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4145.63391</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3420.962739999999</v>
+        <v>3420.96274</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>19380.50361</v>
@@ -2966,22 +3127,27 @@
         <v>14298.98081</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>19787.7902</v>
+        <v>19834.31622</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>127960.6346</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>128589.44821</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>64789.538</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>35664.22239</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-83275.7469</v>
+        <v>-83275.74690000001</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>225001.70475</v>
@@ -2993,25 +3159,28 @@
         <v>-1971914.73476</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>127549.66005</v>
+        <v>128759.29925</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1004856.54085</v>
+        <v>-1005138.91354</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-3021926.98399</v>
+        <v>-3021922.91055</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-1904336.77015</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-5237935.611509999</v>
+        <v>-5246920.811149999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1077335.05536</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1068775.60119</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-3377419.474</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>69</v>
@@ -3050,22 +3222,25 @@
         <v>98</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>112</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>124</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>